--- a/static/template/template.xlsx
+++ b/static/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\ARI RISMANSYAH\WORK\EMAIL BLASTING KLIK JEMPOL\klik_jempol\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD8281D-A7C1-4E2C-A511-1449A4CF4217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D3F1C35-9A58-4E4F-87E3-0A72BCBD7C36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3165" windowWidth="12630" windowHeight="8190" xr2:uid="{1C2100E5-D003-4545-A185-81CA68E31EDD}"/>
+    <workbookView xWindow="3960" yWindow="3840" windowWidth="12630" windowHeight="8190" xr2:uid="{1C2100E5-D003-4545-A185-81CA68E31EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nama</t>
   </si>
@@ -55,12 +55,42 @@
   </si>
   <si>
     <t>kab_domisili</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>instansi</t>
+  </si>
+  <si>
+    <t>Joni Muara</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Balai Standarisasa dan instrumen KLHK</t>
+  </si>
+  <si>
+    <t>protection_muara@yahoo.co.id</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>081278972804</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,52 +438,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33555F1-A06F-4472-8609-E654B635E34B}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29402</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
